--- a/docs/Today_PoohPoints_SEC_ByOwner_2026-01-22.xlsx
+++ b/docs/Today_PoohPoints_SEC_ByOwner_2026-01-22.xlsx
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
